--- a/Data/NBA Team Annual Attendance.xlsx
+++ b/Data/NBA Team Annual Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jvon/Repositories/nba-attendance/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3D8380-8349-C14A-A270-44A0B0C749D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB30FC6-FB35-A849-A767-87F243BAF5D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,7 @@
     <t>Away: Total Games</t>
   </si>
   <si>
-    <t>Away: Total Attendance</t>
-  </si>
-  <si>
     <t>Away: Avg Attendance</t>
-  </si>
-  <si>
-    <t>Away: % Capactiy</t>
   </si>
   <si>
     <t>Bulls</t>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>PCT</t>
+  </si>
+  <si>
+    <t>Away: % Capacity</t>
+  </si>
+  <si>
+    <t>Total Games</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:M567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G537" sqref="G537"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -584,16 +584,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>41</v>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6">
         <v>41</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6">
         <v>41</v>
@@ -776,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>41</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6">
         <v>41</v>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6">
         <v>41</v>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6">
         <v>41</v>
@@ -948,7 +948,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
         <v>41</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="6">
         <v>41</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6">
         <v>41</v>
@@ -1077,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6">
         <v>41</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6">
         <v>41</v>
@@ -1163,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6">
         <v>41</v>
@@ -1206,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="6">
         <v>41</v>
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6">
         <v>41</v>
@@ -1292,7 +1292,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6">
         <v>41</v>
@@ -1335,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6">
         <v>41</v>
@@ -1378,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6">
         <v>41</v>
@@ -1421,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6">
         <v>41</v>
@@ -1464,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="6">
         <v>41</v>
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" s="6">
         <v>41</v>
@@ -1550,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6">
         <v>41</v>
@@ -1593,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
         <v>41</v>
@@ -1636,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6">
         <v>41</v>
@@ -1679,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
         <v>41</v>
@@ -1722,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="6">
         <v>41</v>
@@ -1765,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="6">
         <v>41</v>
@@ -1808,7 +1808,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6">
         <v>41</v>
@@ -1851,7 +1851,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6">
         <v>41</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6">
         <v>41</v>
@@ -1937,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33" s="6">
         <v>41</v>
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="6">
         <v>41</v>
@@ -2023,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6">
         <v>41</v>
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" s="6">
         <v>41</v>
@@ -2109,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" s="6">
         <v>41</v>
@@ -2152,7 +2152,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="6">
         <v>41</v>
@@ -2195,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="6">
         <v>41</v>
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="6">
         <v>41</v>
@@ -2281,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D41" s="6">
         <v>41</v>
@@ -2324,7 +2324,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="6">
         <v>41</v>
@@ -2367,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="6">
         <v>41</v>
@@ -2410,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44" s="6">
         <v>41</v>
@@ -2453,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D45" s="6">
         <v>41</v>
@@ -2496,7 +2496,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D46" s="6">
         <v>41</v>
@@ -2539,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="6">
         <v>41</v>
@@ -2582,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D48" s="6">
         <v>41</v>
@@ -2625,7 +2625,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D49" s="6">
         <v>41</v>
@@ -2668,7 +2668,7 @@
         <v>19</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D50" s="6">
         <v>41</v>
@@ -2711,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="6">
         <v>41</v>
@@ -2754,7 +2754,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" s="6">
         <v>41</v>
@@ -2797,7 +2797,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D53" s="6">
         <v>41</v>
@@ -2840,7 +2840,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D54" s="6">
         <v>41</v>
@@ -2883,7 +2883,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D55" s="6">
         <v>41</v>
@@ -2926,7 +2926,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D56" s="6">
         <v>41</v>
@@ -2969,7 +2969,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" s="6">
         <v>41</v>
@@ -3012,7 +3012,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="6">
         <v>41</v>
@@ -3055,7 +3055,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D59" s="6">
         <v>41</v>
@@ -3098,7 +3098,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D60" s="6">
         <v>41</v>
@@ -3141,7 +3141,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="6">
         <v>41</v>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="6">
         <v>41</v>
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="6">
         <v>41</v>
@@ -3270,7 +3270,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="6">
         <v>41</v>
@@ -3313,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D65" s="6">
         <v>41</v>
@@ -3356,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="6">
         <v>41</v>
@@ -3399,7 +3399,7 @@
         <v>6</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D67" s="6">
         <v>41</v>
@@ -3442,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6">
         <v>41</v>
@@ -3485,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D69" s="6">
         <v>41</v>
@@ -3528,7 +3528,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" s="6">
         <v>41</v>
@@ -3571,7 +3571,7 @@
         <v>10</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D71" s="6">
         <v>41</v>
@@ -3614,7 +3614,7 @@
         <v>11</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6">
         <v>41</v>
@@ -3657,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73" s="6">
         <v>41</v>
@@ -3700,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D74" s="6">
         <v>41</v>
@@ -3743,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D75" s="6">
         <v>41</v>
@@ -3786,7 +3786,7 @@
         <v>15</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D76" s="6">
         <v>41</v>
@@ -3829,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77" s="6">
         <v>41</v>
@@ -3872,7 +3872,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D78" s="6">
         <v>41</v>
@@ -3915,7 +3915,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D79" s="6">
         <v>41</v>
@@ -3958,7 +3958,7 @@
         <v>19</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="6">
         <v>41</v>
@@ -4001,7 +4001,7 @@
         <v>20</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D81" s="6">
         <v>41</v>
@@ -4044,7 +4044,7 @@
         <v>21</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D82" s="6">
         <v>41</v>
@@ -4087,7 +4087,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D83" s="6">
         <v>41</v>
@@ -4130,7 +4130,7 @@
         <v>23</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84" s="6">
         <v>41</v>
@@ -4173,7 +4173,7 @@
         <v>24</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85" s="6">
         <v>41</v>
@@ -4216,7 +4216,7 @@
         <v>25</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D86" s="6">
         <v>41</v>
@@ -4259,7 +4259,7 @@
         <v>26</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D87" s="6">
         <v>41</v>
@@ -4302,7 +4302,7 @@
         <v>27</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D88" s="6">
         <v>41</v>
@@ -4345,7 +4345,7 @@
         <v>28</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D89" s="6">
         <v>41</v>
@@ -4388,7 +4388,7 @@
         <v>29</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D90" s="6">
         <v>41</v>
@@ -4431,7 +4431,7 @@
         <v>30</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D91" s="6">
         <v>41</v>
@@ -4474,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D92" s="1">
         <v>41</v>
@@ -4517,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>41</v>
@@ -4560,7 +4560,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
         <v>41</v>
@@ -4603,7 +4603,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
         <v>41</v>
@@ -4646,7 +4646,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D96" s="1">
         <v>41</v>
@@ -4689,7 +4689,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D97" s="1">
         <v>41</v>
@@ -4732,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D98" s="1">
         <v>41</v>
@@ -4775,7 +4775,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1">
         <v>41</v>
@@ -4818,7 +4818,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D100" s="1">
         <v>41</v>
@@ -4861,7 +4861,7 @@
         <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D101" s="1">
         <v>41</v>
@@ -4904,7 +4904,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D102" s="1">
         <v>41</v>
@@ -4947,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D103" s="1">
         <v>41</v>
@@ -4990,7 +4990,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D104" s="1">
         <v>41</v>
@@ -5033,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D105" s="1">
         <v>41</v>
@@ -5076,7 +5076,7 @@
         <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D106" s="1">
         <v>41</v>
@@ -5119,7 +5119,7 @@
         <v>16</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D107" s="1">
         <v>41</v>
@@ -5162,7 +5162,7 @@
         <v>17</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D108" s="1">
         <v>41</v>
@@ -5205,7 +5205,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D109" s="1">
         <v>41</v>
@@ -5248,7 +5248,7 @@
         <v>19</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="1">
         <v>41</v>
@@ -5291,7 +5291,7 @@
         <v>20</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D111" s="1">
         <v>41</v>
@@ -5334,7 +5334,7 @@
         <v>21</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D112" s="1">
         <v>41</v>
@@ -5377,7 +5377,7 @@
         <v>22</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D113" s="1">
         <v>41</v>
@@ -5420,7 +5420,7 @@
         <v>23</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D114" s="1">
         <v>41</v>
@@ -5463,7 +5463,7 @@
         <v>24</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D115" s="1">
         <v>41</v>
@@ -5506,7 +5506,7 @@
         <v>25</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D116" s="1">
         <v>41</v>
@@ -5549,7 +5549,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D117" s="1">
         <v>41</v>
@@ -5592,7 +5592,7 @@
         <v>27</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D118" s="1">
         <v>41</v>
@@ -5635,7 +5635,7 @@
         <v>28</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D119" s="1">
         <v>41</v>
@@ -5678,7 +5678,7 @@
         <v>29</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D120" s="1">
         <v>41</v>
@@ -5721,7 +5721,7 @@
         <v>30</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D121" s="1">
         <v>41</v>
@@ -5764,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122" s="1">
         <v>41</v>
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
         <v>41</v>
@@ -5850,7 +5850,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1">
         <v>41</v>
@@ -5893,7 +5893,7 @@
         <v>4</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D125" s="1">
         <v>41</v>
@@ -5936,7 +5936,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1">
         <v>41</v>
@@ -5979,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" s="1">
         <v>41</v>
@@ -6022,7 +6022,7 @@
         <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D128" s="1">
         <v>41</v>
@@ -6065,7 +6065,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1">
         <v>41</v>
@@ -6108,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D130" s="1">
         <v>41</v>
@@ -6151,7 +6151,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131" s="1">
         <v>41</v>
@@ -6194,7 +6194,7 @@
         <v>11</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D132" s="1">
         <v>41</v>
@@ -6237,7 +6237,7 @@
         <v>12</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D133" s="1">
         <v>41</v>
@@ -6280,7 +6280,7 @@
         <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D134" s="1">
         <v>41</v>
@@ -6323,7 +6323,7 @@
         <v>14</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D135" s="1">
         <v>41</v>
@@ -6366,7 +6366,7 @@
         <v>15</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D136" s="1">
         <v>41</v>
@@ -6409,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D137" s="1">
         <v>41</v>
@@ -6452,7 +6452,7 @@
         <v>17</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D138" s="1">
         <v>41</v>
@@ -6495,7 +6495,7 @@
         <v>18</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D139" s="1">
         <v>41</v>
@@ -6538,7 +6538,7 @@
         <v>19</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D140" s="1">
         <v>41</v>
@@ -6581,7 +6581,7 @@
         <v>20</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D141" s="1">
         <v>41</v>
@@ -6624,7 +6624,7 @@
         <v>21</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D142" s="1">
         <v>41</v>
@@ -6667,7 +6667,7 @@
         <v>22</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D143" s="1">
         <v>41</v>
@@ -6710,7 +6710,7 @@
         <v>23</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D144" s="1">
         <v>41</v>
@@ -6753,7 +6753,7 @@
         <v>24</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D145" s="1">
         <v>41</v>
@@ -6796,7 +6796,7 @@
         <v>25</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="1">
         <v>41</v>
@@ -6839,7 +6839,7 @@
         <v>26</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D147" s="1">
         <v>41</v>
@@ -6882,7 +6882,7 @@
         <v>27</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D148" s="1">
         <v>41</v>
@@ -6925,7 +6925,7 @@
         <v>28</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D149" s="1">
         <v>41</v>
@@ -6968,7 +6968,7 @@
         <v>29</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D150" s="1">
         <v>41</v>
@@ -7011,7 +7011,7 @@
         <v>30</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D151" s="1">
         <v>41</v>
@@ -7054,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152" s="1">
         <v>41</v>
@@ -7097,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1">
         <v>41</v>
@@ -7140,7 +7140,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D154" s="1">
         <v>41</v>
@@ -7183,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" s="1">
         <v>41</v>
@@ -7226,7 +7226,7 @@
         <v>5</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D156" s="1">
         <v>41</v>
@@ -7269,7 +7269,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D157" s="1">
         <v>41</v>
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D158" s="1">
         <v>41</v>
@@ -7355,7 +7355,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D159" s="1">
         <v>41</v>
@@ -7398,7 +7398,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D160" s="1">
         <v>41</v>
@@ -7441,7 +7441,7 @@
         <v>10</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D161" s="1">
         <v>41</v>
@@ -7484,7 +7484,7 @@
         <v>11</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D162" s="1">
         <v>41</v>
@@ -7527,7 +7527,7 @@
         <v>12</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D163" s="1">
         <v>41</v>
@@ -7570,7 +7570,7 @@
         <v>13</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D164" s="1">
         <v>41</v>
@@ -7613,7 +7613,7 @@
         <v>14</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D165" s="1">
         <v>41</v>
@@ -7656,7 +7656,7 @@
         <v>15</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D166" s="1">
         <v>41</v>
@@ -7699,7 +7699,7 @@
         <v>16</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1">
         <v>41</v>
@@ -7742,7 +7742,7 @@
         <v>17</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D168" s="1">
         <v>41</v>
@@ -7785,7 +7785,7 @@
         <v>18</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D169" s="1">
         <v>41</v>
@@ -7828,7 +7828,7 @@
         <v>19</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D170" s="1">
         <v>41</v>
@@ -7871,7 +7871,7 @@
         <v>20</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D171" s="1">
         <v>41</v>
@@ -7914,7 +7914,7 @@
         <v>21</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D172" s="1">
         <v>41</v>
@@ -7957,7 +7957,7 @@
         <v>22</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="1">
         <v>41</v>
@@ -8000,7 +8000,7 @@
         <v>23</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D174" s="1">
         <v>41</v>
@@ -8043,7 +8043,7 @@
         <v>24</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D175" s="1">
         <v>41</v>
@@ -8086,7 +8086,7 @@
         <v>25</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D176" s="1">
         <v>41</v>
@@ -8129,7 +8129,7 @@
         <v>26</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D177" s="1">
         <v>41</v>
@@ -8172,7 +8172,7 @@
         <v>27</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D178" s="1">
         <v>41</v>
@@ -8215,7 +8215,7 @@
         <v>28</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D179" s="1">
         <v>41</v>
@@ -8258,7 +8258,7 @@
         <v>29</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D180" s="1">
         <v>41</v>
@@ -8301,7 +8301,7 @@
         <v>30</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D181" s="1">
         <v>41</v>
@@ -8344,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D182" s="1">
         <v>41</v>
@@ -8387,7 +8387,7 @@
         <v>2</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D183" s="1">
         <v>41</v>
@@ -8430,7 +8430,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D184" s="1">
         <v>41</v>
@@ -8473,7 +8473,7 @@
         <v>4</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D185" s="1">
         <v>41</v>
@@ -8516,7 +8516,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D186" s="1">
         <v>41</v>
@@ -8559,7 +8559,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D187" s="1">
         <v>41</v>
@@ -8602,7 +8602,7 @@
         <v>7</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D188" s="1">
         <v>41</v>
@@ -8645,7 +8645,7 @@
         <v>8</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D189" s="1">
         <v>41</v>
@@ -8688,7 +8688,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D190" s="1">
         <v>41</v>
@@ -8731,7 +8731,7 @@
         <v>10</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D191" s="1">
         <v>40</v>
@@ -8774,7 +8774,7 @@
         <v>11</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D192" s="1">
         <v>41</v>
@@ -8817,7 +8817,7 @@
         <v>12</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D193" s="1">
         <v>41</v>
@@ -8860,7 +8860,7 @@
         <v>13</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D194" s="1">
         <v>41</v>
@@ -8903,7 +8903,7 @@
         <v>14</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D195" s="1">
         <v>41</v>
@@ -8946,7 +8946,7 @@
         <v>15</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D196" s="1">
         <v>41</v>
@@ -8989,7 +8989,7 @@
         <v>16</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D197" s="1">
         <v>41</v>
@@ -9032,7 +9032,7 @@
         <v>17</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D198" s="1">
         <v>41</v>
@@ -9075,7 +9075,7 @@
         <v>18</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D199" s="1">
         <v>41</v>
@@ -9118,7 +9118,7 @@
         <v>19</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D200" s="1">
         <v>41</v>
@@ -9161,7 +9161,7 @@
         <v>20</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D201" s="1">
         <v>41</v>
@@ -9204,7 +9204,7 @@
         <v>21</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D202" s="1">
         <v>41</v>
@@ -9247,7 +9247,7 @@
         <v>22</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D203" s="1">
         <v>41</v>
@@ -9290,7 +9290,7 @@
         <v>23</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D204" s="1">
         <v>41</v>
@@ -9333,7 +9333,7 @@
         <v>24</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D205" s="1">
         <v>41</v>
@@ -9376,7 +9376,7 @@
         <v>25</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D206" s="1">
         <v>41</v>
@@ -9419,7 +9419,7 @@
         <v>26</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D207" s="1">
         <v>41</v>
@@ -9462,7 +9462,7 @@
         <v>27</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D208" s="1">
         <v>41</v>
@@ -9505,7 +9505,7 @@
         <v>28</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D209" s="1">
         <v>41</v>
@@ -9548,7 +9548,7 @@
         <v>29</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D210" s="1">
         <v>41</v>
@@ -9591,7 +9591,7 @@
         <v>30</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D211" s="1">
         <v>41</v>
@@ -9634,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D212" s="1">
         <v>33</v>
@@ -9677,7 +9677,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D213" s="1">
         <v>33</v>
@@ -9720,7 +9720,7 @@
         <v>3</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D214" s="1">
         <v>33</v>
@@ -9763,7 +9763,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D215" s="1">
         <v>33</v>
@@ -9806,7 +9806,7 @@
         <v>5</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D216" s="1">
         <v>33</v>
@@ -9849,7 +9849,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D217" s="1">
         <v>33</v>
@@ -9892,7 +9892,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D218" s="1">
         <v>33</v>
@@ -9935,7 +9935,7 @@
         <v>8</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D219" s="1">
         <v>33</v>
@@ -9978,7 +9978,7 @@
         <v>9</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D220" s="1">
         <v>33</v>
@@ -10021,7 +10021,7 @@
         <v>10</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D221" s="1">
         <v>33</v>
@@ -10064,7 +10064,7 @@
         <v>11</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D222" s="1">
         <v>33</v>
@@ -10107,7 +10107,7 @@
         <v>12</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D223" s="1">
         <v>33</v>
@@ -10150,7 +10150,7 @@
         <v>13</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D224" s="1">
         <v>33</v>
@@ -10193,7 +10193,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D225" s="1">
         <v>33</v>
@@ -10236,7 +10236,7 @@
         <v>15</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D226" s="1">
         <v>33</v>
@@ -10279,7 +10279,7 @@
         <v>16</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D227" s="1">
         <v>33</v>
@@ -10322,7 +10322,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1">
         <v>33</v>
@@ -10365,7 +10365,7 @@
         <v>18</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D229" s="1">
         <v>33</v>
@@ -10408,7 +10408,7 @@
         <v>19</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D230" s="1">
         <v>33</v>
@@ -10451,7 +10451,7 @@
         <v>20</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D231" s="1">
         <v>33</v>
@@ -10494,7 +10494,7 @@
         <v>21</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D232" s="1">
         <v>33</v>
@@ -10537,7 +10537,7 @@
         <v>22</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D233" s="1">
         <v>33</v>
@@ -10580,7 +10580,7 @@
         <v>23</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D234" s="1">
         <v>33</v>
@@ -10623,7 +10623,7 @@
         <v>24</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D235" s="1">
         <v>33</v>
@@ -10666,7 +10666,7 @@
         <v>25</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D236" s="1">
         <v>33</v>
@@ -10709,7 +10709,7 @@
         <v>26</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D237" s="1">
         <v>33</v>
@@ -10752,7 +10752,7 @@
         <v>27</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D238" s="1">
         <v>33</v>
@@ -10795,7 +10795,7 @@
         <v>28</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D239" s="1">
         <v>33</v>
@@ -10838,7 +10838,7 @@
         <v>29</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D240" s="1">
         <v>33</v>
@@ -10881,7 +10881,7 @@
         <v>30</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D241" s="1">
         <v>33</v>
@@ -10924,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D242" s="1">
         <v>41</v>
@@ -10967,7 +10967,7 @@
         <v>2</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D243" s="1">
         <v>41</v>
@@ -11010,7 +11010,7 @@
         <v>3</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D244" s="1">
         <v>41</v>
@@ -11053,7 +11053,7 @@
         <v>4</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D245" s="1">
         <v>41</v>
@@ -11096,7 +11096,7 @@
         <v>5</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D246" s="1">
         <v>41</v>
@@ -11139,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D247" s="1">
         <v>41</v>
@@ -11182,7 +11182,7 @@
         <v>7</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D248" s="1">
         <v>41</v>
@@ -11225,7 +11225,7 @@
         <v>8</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D249" s="1">
         <v>41</v>
@@ -11268,7 +11268,7 @@
         <v>9</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D250" s="1">
         <v>41</v>
@@ -11311,7 +11311,7 @@
         <v>10</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D251" s="1">
         <v>41</v>
@@ -11354,7 +11354,7 @@
         <v>11</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D252" s="1">
         <v>41</v>
@@ -11397,7 +11397,7 @@
         <v>12</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D253" s="1">
         <v>41</v>
@@ -11440,7 +11440,7 @@
         <v>13</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D254" s="1">
         <v>41</v>
@@ -11483,7 +11483,7 @@
         <v>14</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D255" s="1">
         <v>41</v>
@@ -11526,7 +11526,7 @@
         <v>15</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D256" s="1">
         <v>41</v>
@@ -11569,7 +11569,7 @@
         <v>16</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D257" s="1">
         <v>41</v>
@@ -11612,7 +11612,7 @@
         <v>17</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D258" s="1">
         <v>41</v>
@@ -11655,7 +11655,7 @@
         <v>18</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D259" s="1">
         <v>41</v>
@@ -11698,7 +11698,7 @@
         <v>19</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D260" s="1">
         <v>41</v>
@@ -11741,7 +11741,7 @@
         <v>20</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D261" s="1">
         <v>41</v>
@@ -11784,7 +11784,7 @@
         <v>21</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D262" s="1">
         <v>41</v>
@@ -11827,7 +11827,7 @@
         <v>22</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D263" s="1">
         <v>41</v>
@@ -11870,7 +11870,7 @@
         <v>23</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D264" s="1">
         <v>41</v>
@@ -11913,7 +11913,7 @@
         <v>24</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D265" s="1">
         <v>41</v>
@@ -11956,7 +11956,7 @@
         <v>25</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D266" s="1">
         <v>41</v>
@@ -11999,7 +11999,7 @@
         <v>26</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D267" s="1">
         <v>41</v>
@@ -12042,7 +12042,7 @@
         <v>27</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D268" s="1">
         <v>41</v>
@@ -12085,7 +12085,7 @@
         <v>28</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D269" s="1">
         <v>41</v>
@@ -12128,7 +12128,7 @@
         <v>29</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D270" s="1">
         <v>41</v>
@@ -12171,7 +12171,7 @@
         <v>30</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D271" s="1">
         <v>41</v>
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D272" s="1">
         <v>41</v>
@@ -12257,7 +12257,7 @@
         <v>2</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D273" s="1">
         <v>41</v>
@@ -12300,7 +12300,7 @@
         <v>3</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D274" s="1">
         <v>41</v>
@@ -12343,7 +12343,7 @@
         <v>4</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D275" s="1">
         <v>41</v>
@@ -12386,7 +12386,7 @@
         <v>5</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D276" s="1">
         <v>41</v>
@@ -12429,7 +12429,7 @@
         <v>6</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D277" s="1">
         <v>41</v>
@@ -12472,7 +12472,7 @@
         <v>7</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D278" s="1">
         <v>41</v>
@@ -12515,7 +12515,7 @@
         <v>8</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D279" s="1">
         <v>41</v>
@@ -12558,7 +12558,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D280" s="1">
         <v>41</v>
@@ -12601,7 +12601,7 @@
         <v>10</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D281" s="1">
         <v>41</v>
@@ -12644,7 +12644,7 @@
         <v>11</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D282" s="1">
         <v>41</v>
@@ -12687,7 +12687,7 @@
         <v>12</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D283" s="1">
         <v>41</v>
@@ -12730,7 +12730,7 @@
         <v>13</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D284" s="1">
         <v>41</v>
@@ -12773,7 +12773,7 @@
         <v>14</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D285" s="1">
         <v>41</v>
@@ -12816,7 +12816,7 @@
         <v>15</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D286" s="1">
         <v>41</v>
@@ -12859,7 +12859,7 @@
         <v>16</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D287" s="1">
         <v>41</v>
@@ -12902,7 +12902,7 @@
         <v>17</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D288" s="1">
         <v>41</v>
@@ -12945,7 +12945,7 @@
         <v>18</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D289" s="1">
         <v>41</v>
@@ -12988,7 +12988,7 @@
         <v>19</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D290" s="1">
         <v>41</v>
@@ -13031,7 +13031,7 @@
         <v>20</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D291" s="1">
         <v>41</v>
@@ -13074,7 +13074,7 @@
         <v>21</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D292" s="1">
         <v>41</v>
@@ -13117,7 +13117,7 @@
         <v>22</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D293" s="1">
         <v>41</v>
@@ -13160,7 +13160,7 @@
         <v>23</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D294" s="1">
         <v>41</v>
@@ -13203,7 +13203,7 @@
         <v>24</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D295" s="1">
         <v>41</v>
@@ -13246,7 +13246,7 @@
         <v>25</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D296" s="1">
         <v>41</v>
@@ -13289,7 +13289,7 @@
         <v>26</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D297" s="1">
         <v>41</v>
@@ -13332,7 +13332,7 @@
         <v>27</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D298" s="1">
         <v>41</v>
@@ -13375,7 +13375,7 @@
         <v>28</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D299" s="1">
         <v>41</v>
@@ -13418,7 +13418,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D300" s="1">
         <v>41</v>
@@ -13461,7 +13461,7 @@
         <v>30</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D301" s="1">
         <v>41</v>
@@ -13504,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D302" s="1">
         <v>41</v>
@@ -13547,7 +13547,7 @@
         <v>2</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D303" s="1">
         <v>40</v>
@@ -13590,7 +13590,7 @@
         <v>3</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D304" s="1">
         <v>41</v>
@@ -13633,7 +13633,7 @@
         <v>4</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D305" s="1">
         <v>41</v>
@@ -13676,7 +13676,7 @@
         <v>5</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D306" s="1">
         <v>41</v>
@@ -13719,7 +13719,7 @@
         <v>6</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D307" s="1">
         <v>41</v>
@@ -13762,7 +13762,7 @@
         <v>7</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D308" s="1">
         <v>41</v>
@@ -13805,7 +13805,7 @@
         <v>8</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D309" s="1">
         <v>41</v>
@@ -13848,7 +13848,7 @@
         <v>9</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D310" s="1">
         <v>41</v>
@@ -13891,7 +13891,7 @@
         <v>10</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D311" s="1">
         <v>41</v>
@@ -13934,7 +13934,7 @@
         <v>11</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D312" s="1">
         <v>40</v>
@@ -13977,7 +13977,7 @@
         <v>12</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D313" s="1">
         <v>41</v>
@@ -14020,7 +14020,7 @@
         <v>13</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D314" s="1">
         <v>41</v>
@@ -14063,7 +14063,7 @@
         <v>14</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D315" s="1">
         <v>41</v>
@@ -14106,7 +14106,7 @@
         <v>15</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D316" s="1">
         <v>40</v>
@@ -14149,7 +14149,7 @@
         <v>16</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D317" s="1">
         <v>40</v>
@@ -14192,7 +14192,7 @@
         <v>17</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D318" s="1">
         <v>41</v>
@@ -14235,7 +14235,7 @@
         <v>18</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D319" s="1">
         <v>41</v>
@@ -14278,7 +14278,7 @@
         <v>19</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D320" s="1">
         <v>41</v>
@@ -14321,7 +14321,7 @@
         <v>20</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D321" s="1">
         <v>41</v>
@@ -14364,7 +14364,7 @@
         <v>21</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D322" s="1">
         <v>41</v>
@@ -14407,7 +14407,7 @@
         <v>22</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D323" s="1">
         <v>40</v>
@@ -14450,7 +14450,7 @@
         <v>23</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D324" s="1">
         <v>41</v>
@@ -14493,7 +14493,7 @@
         <v>24</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D325" s="1">
         <v>41</v>
@@ -14536,7 +14536,7 @@
         <v>25</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D326" s="1">
         <v>41</v>
@@ -14579,7 +14579,7 @@
         <v>26</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D327" s="1">
         <v>40</v>
@@ -14622,7 +14622,7 @@
         <v>27</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D328" s="1">
         <v>41</v>
@@ -14665,7 +14665,7 @@
         <v>28</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D329" s="1">
         <v>41</v>
@@ -14708,7 +14708,7 @@
         <v>29</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D330" s="1">
         <v>40</v>
@@ -14751,7 +14751,7 @@
         <v>30</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D331" s="1">
         <v>40</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D332" s="1">
         <v>41</v>
@@ -14837,7 +14837,7 @@
         <v>2</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D333" s="1">
         <v>41</v>
@@ -14880,7 +14880,7 @@
         <v>3</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D334" s="1">
         <v>41</v>
@@ -14923,7 +14923,7 @@
         <v>4</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D335" s="1">
         <v>41</v>
@@ -14935,7 +14935,7 @@
         <v>20286</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H335" s="1">
         <v>41</v>
@@ -14966,7 +14966,7 @@
         <v>5</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D336" s="1">
         <v>41</v>
@@ -15009,7 +15009,7 @@
         <v>6</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D337" s="1">
         <v>41</v>
@@ -15052,7 +15052,7 @@
         <v>7</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D338" s="1">
         <v>41</v>
@@ -15095,7 +15095,7 @@
         <v>8</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D339" s="1">
         <v>41</v>
@@ -15138,7 +15138,7 @@
         <v>9</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D340" s="1">
         <v>41</v>
@@ -15181,7 +15181,7 @@
         <v>10</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D341" s="1">
         <v>41</v>
@@ -15224,7 +15224,7 @@
         <v>11</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D342" s="1">
         <v>41</v>
@@ -15267,7 +15267,7 @@
         <v>12</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D343" s="1">
         <v>41</v>
@@ -15310,7 +15310,7 @@
         <v>13</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D344" s="1">
         <v>41</v>
@@ -15353,7 +15353,7 @@
         <v>14</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D345" s="1">
         <v>41</v>
@@ -15396,7 +15396,7 @@
         <v>15</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D346" s="1">
         <v>41</v>
@@ -15408,7 +15408,7 @@
         <v>17962</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H346" s="1">
         <v>41</v>
@@ -15439,7 +15439,7 @@
         <v>16</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D347" s="1">
         <v>41</v>
@@ -15482,7 +15482,7 @@
         <v>17</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D348" s="1">
         <v>41</v>
@@ -15494,7 +15494,7 @@
         <v>17364</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H348" s="1">
         <v>41</v>
@@ -15525,7 +15525,7 @@
         <v>18</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D349" s="1">
         <v>41</v>
@@ -15568,7 +15568,7 @@
         <v>19</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D350" s="1">
         <v>41</v>
@@ -15580,7 +15580,7 @@
         <v>16888</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H350" s="1">
         <v>41</v>
@@ -15611,7 +15611,7 @@
         <v>20</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D351" s="1">
         <v>41</v>
@@ -15623,7 +15623,7 @@
         <v>16280</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H351" s="1">
         <v>41</v>
@@ -15654,7 +15654,7 @@
         <v>21</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D352" s="1">
         <v>41</v>
@@ -15697,7 +15697,7 @@
         <v>22</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D353" s="1">
         <v>41</v>
@@ -15740,7 +15740,7 @@
         <v>23</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D354" s="1">
         <v>41</v>
@@ -15783,7 +15783,7 @@
         <v>24</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D355" s="1">
         <v>41</v>
@@ -15826,7 +15826,7 @@
         <v>25</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D356" s="1">
         <v>41</v>
@@ -15869,7 +15869,7 @@
         <v>26</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D357" s="1">
         <v>41</v>
@@ -15912,7 +15912,7 @@
         <v>27</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D358" s="1">
         <v>41</v>
@@ -15955,7 +15955,7 @@
         <v>28</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D359" s="1">
         <v>41</v>
@@ -15998,7 +15998,7 @@
         <v>29</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D360" s="1">
         <v>41</v>
@@ -16041,7 +16041,7 @@
         <v>30</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D361" s="1">
         <v>41</v>
@@ -16084,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D362" s="1">
         <v>41</v>
@@ -16127,7 +16127,7 @@
         <v>2</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D363" s="1">
         <v>41</v>
@@ -16170,7 +16170,7 @@
         <v>3</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D364" s="1">
         <v>41</v>
@@ -16213,7 +16213,7 @@
         <v>4</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D365" s="1">
         <v>41</v>
@@ -16225,7 +16225,7 @@
         <v>20351</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H365" s="1">
         <v>41</v>
@@ -16256,7 +16256,7 @@
         <v>5</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D366" s="1">
         <v>41</v>
@@ -16299,7 +16299,7 @@
         <v>6</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D367" s="1">
         <v>41</v>
@@ -16342,7 +16342,7 @@
         <v>7</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D368" s="1">
         <v>41</v>
@@ -16385,7 +16385,7 @@
         <v>8</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D369" s="1">
         <v>41</v>
@@ -16428,7 +16428,7 @@
         <v>9</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D370" s="1">
         <v>41</v>
@@ -16471,7 +16471,7 @@
         <v>10</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D371" s="1">
         <v>41</v>
@@ -16514,7 +16514,7 @@
         <v>11</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D372" s="1">
         <v>41</v>
@@ -16526,7 +16526,7 @@
         <v>18421</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H372" s="1">
         <v>41</v>
@@ -16557,7 +16557,7 @@
         <v>12</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D373" s="1">
         <v>41</v>
@@ -16569,7 +16569,7 @@
         <v>18372</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H373" s="1">
         <v>41</v>
@@ -16600,7 +16600,7 @@
         <v>13</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D374" s="1">
         <v>41</v>
@@ -16643,7 +16643,7 @@
         <v>14</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D375" s="1">
         <v>41</v>
@@ -16686,7 +16686,7 @@
         <v>15</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D376" s="1">
         <v>41</v>
@@ -16729,7 +16729,7 @@
         <v>16</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D377" s="1">
         <v>41</v>
@@ -16772,7 +16772,7 @@
         <v>17</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D378" s="1">
         <v>41</v>
@@ -16784,7 +16784,7 @@
         <v>17230</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H378" s="1">
         <v>41</v>
@@ -16815,7 +16815,7 @@
         <v>18</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D379" s="1">
         <v>41</v>
@@ -16858,7 +16858,7 @@
         <v>19</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D380" s="1">
         <v>41</v>
@@ -16901,7 +16901,7 @@
         <v>20</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D381" s="1">
         <v>41</v>
@@ -16944,7 +16944,7 @@
         <v>21</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D382" s="1">
         <v>41</v>
@@ -16987,7 +16987,7 @@
         <v>22</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D383" s="1">
         <v>41</v>
@@ -17030,7 +17030,7 @@
         <v>23</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D384" s="1">
         <v>41</v>
@@ -17073,7 +17073,7 @@
         <v>24</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D385" s="1">
         <v>41</v>
@@ -17116,7 +17116,7 @@
         <v>25</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D386" s="1">
         <v>41</v>
@@ -17159,7 +17159,7 @@
         <v>26</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D387" s="1">
         <v>41</v>
@@ -17171,7 +17171,7 @@
         <v>15594</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H387" s="1">
         <v>41</v>
@@ -17202,7 +17202,7 @@
         <v>27</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D388" s="1">
         <v>41</v>
@@ -17245,7 +17245,7 @@
         <v>28</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D389" s="1">
         <v>41</v>
@@ -17288,7 +17288,7 @@
         <v>29</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D390" s="1">
         <v>41</v>
@@ -17331,7 +17331,7 @@
         <v>30</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D391" s="1">
         <v>41</v>
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D392" s="1">
         <v>41</v>
@@ -17417,7 +17417,7 @@
         <v>2</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D393" s="1">
         <v>41</v>
@@ -17460,7 +17460,7 @@
         <v>3</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D394" s="1">
         <v>41</v>
@@ -17472,7 +17472,7 @@
         <v>20114</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H394" s="1">
         <v>41</v>
@@ -17503,7 +17503,7 @@
         <v>4</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D395" s="1">
         <v>41</v>
@@ -17546,7 +17546,7 @@
         <v>5</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D396" s="1">
         <v>41</v>
@@ -17589,7 +17589,7 @@
         <v>6</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D397" s="1">
         <v>41</v>
@@ -17632,7 +17632,7 @@
         <v>7</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D398" s="1">
         <v>41</v>
@@ -17675,7 +17675,7 @@
         <v>8</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D399" s="1">
         <v>41</v>
@@ -17718,7 +17718,7 @@
         <v>9</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D400" s="1">
         <v>41</v>
@@ -17761,7 +17761,7 @@
         <v>10</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D401" s="1">
         <v>41</v>
@@ -17804,7 +17804,7 @@
         <v>11</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D402" s="1">
         <v>41</v>
@@ -17847,7 +17847,7 @@
         <v>12</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D403" s="1">
         <v>41</v>
@@ -17890,7 +17890,7 @@
         <v>13</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D404" s="1">
         <v>41</v>
@@ -17902,7 +17902,7 @@
         <v>17375</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H404" s="1">
         <v>41</v>
@@ -17933,7 +17933,7 @@
         <v>14</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D405" s="1">
         <v>41</v>
@@ -17976,7 +17976,7 @@
         <v>15</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D406" s="1">
         <v>41</v>
@@ -17988,7 +17988,7 @@
         <v>17196</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H406" s="1">
         <v>41</v>
@@ -18019,7 +18019,7 @@
         <v>16</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D407" s="1">
         <v>41</v>
@@ -18031,7 +18031,7 @@
         <v>17137</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H407" s="1">
         <v>41</v>
@@ -18062,7 +18062,7 @@
         <v>17</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D408" s="1">
         <v>41</v>
@@ -18105,7 +18105,7 @@
         <v>18</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D409" s="1">
         <v>41</v>
@@ -18148,7 +18148,7 @@
         <v>19</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D410" s="1">
         <v>41</v>
@@ -18191,7 +18191,7 @@
         <v>20</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D411" s="1">
         <v>41</v>
@@ -18234,7 +18234,7 @@
         <v>21</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D412" s="1">
         <v>41</v>
@@ -18277,7 +18277,7 @@
         <v>22</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D413" s="1">
         <v>41</v>
@@ -18289,7 +18289,7 @@
         <v>16366</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H413" s="1">
         <v>41</v>
@@ -18320,7 +18320,7 @@
         <v>23</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D414" s="1">
         <v>41</v>
@@ -18363,7 +18363,7 @@
         <v>24</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D415" s="1">
         <v>41</v>
@@ -18406,7 +18406,7 @@
         <v>25</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D416" s="1">
         <v>41</v>
@@ -18449,7 +18449,7 @@
         <v>26</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D417" s="1">
         <v>41</v>
@@ -18492,7 +18492,7 @@
         <v>27</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D418" s="1">
         <v>41</v>
@@ -18535,7 +18535,7 @@
         <v>28</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D419" s="1">
         <v>41</v>
@@ -18578,7 +18578,7 @@
         <v>29</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D420" s="1">
         <v>41</v>
@@ -18590,7 +18590,7 @@
         <v>15071</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H420" s="1">
         <v>41</v>
@@ -18621,7 +18621,7 @@
         <v>30</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D421" s="1">
         <v>41</v>
@@ -18664,7 +18664,7 @@
         <v>1</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D422" s="1">
         <v>41</v>
@@ -18707,7 +18707,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D423" s="1">
         <v>41</v>
@@ -18750,7 +18750,7 @@
         <v>3</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D424" s="1">
         <v>41</v>
@@ -18762,7 +18762,7 @@
         <v>20061</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H424" s="1">
         <v>41</v>
@@ -18793,7 +18793,7 @@
         <v>4</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D425" s="1">
         <v>41</v>
@@ -18836,7 +18836,7 @@
         <v>5</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D426" s="1">
         <v>41</v>
@@ -18879,7 +18879,7 @@
         <v>6</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D427" s="1">
         <v>41</v>
@@ -18922,7 +18922,7 @@
         <v>7</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D428" s="1">
         <v>41</v>
@@ -18965,7 +18965,7 @@
         <v>8</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D429" s="1">
         <v>41</v>
@@ -19008,7 +19008,7 @@
         <v>9</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D430" s="1">
         <v>41</v>
@@ -19051,7 +19051,7 @@
         <v>10</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D431" s="1">
         <v>41</v>
@@ -19094,7 +19094,7 @@
         <v>11</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D432" s="1">
         <v>41</v>
@@ -19137,7 +19137,7 @@
         <v>12</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D433" s="1">
         <v>41</v>
@@ -19149,7 +19149,7 @@
         <v>17657</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H433" s="1">
         <v>41</v>
@@ -19180,7 +19180,7 @@
         <v>13</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D434" s="1">
         <v>41</v>
@@ -19223,7 +19223,7 @@
         <v>14</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D435" s="1">
         <v>41</v>
@@ -19235,7 +19235,7 @@
         <v>17196</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H435" s="1">
         <v>41</v>
@@ -19266,7 +19266,7 @@
         <v>15</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D436" s="1">
         <v>41</v>
@@ -19309,7 +19309,7 @@
         <v>16</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D437" s="1">
         <v>41</v>
@@ -19352,7 +19352,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D438" s="1">
         <v>41</v>
@@ -19395,7 +19395,7 @@
         <v>18</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D439" s="1">
         <v>41</v>
@@ -19407,7 +19407,7 @@
         <v>16980</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H439" s="1">
         <v>41</v>
@@ -19438,7 +19438,7 @@
         <v>19</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D440" s="1">
         <v>41</v>
@@ -19481,7 +19481,7 @@
         <v>20</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D441" s="1">
         <v>41</v>
@@ -19524,7 +19524,7 @@
         <v>21</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D442" s="1">
         <v>41</v>
@@ -19567,7 +19567,7 @@
         <v>22</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D443" s="1">
         <v>41</v>
@@ -19610,7 +19610,7 @@
         <v>23</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D444" s="1">
         <v>41</v>
@@ -19653,7 +19653,7 @@
         <v>24</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D445" s="1">
         <v>41</v>
@@ -19696,7 +19696,7 @@
         <v>25</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D446" s="1">
         <v>41</v>
@@ -19739,7 +19739,7 @@
         <v>26</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D447" s="1">
         <v>41</v>
@@ -19782,7 +19782,7 @@
         <v>27</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D448" s="1">
         <v>41</v>
@@ -19825,7 +19825,7 @@
         <v>28</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D449" s="1">
         <v>41</v>
@@ -19868,7 +19868,7 @@
         <v>29</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D450" s="1">
         <v>41</v>
@@ -19880,7 +19880,7 @@
         <v>14302</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H450" s="1">
         <v>41</v>
@@ -19911,7 +19911,7 @@
         <v>30</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D451" s="1">
         <v>41</v>
@@ -19954,7 +19954,7 @@
         <v>1</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D452" s="1">
         <v>41</v>
@@ -19997,7 +19997,7 @@
         <v>2</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D453" s="1">
         <v>41</v>
@@ -20009,7 +20009,7 @@
         <v>20136</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H453" s="1">
         <v>41</v>
@@ -20040,7 +20040,7 @@
         <v>3</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D454" s="1">
         <v>41</v>
@@ -20083,7 +20083,7 @@
         <v>4</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D455" s="1">
         <v>41</v>
@@ -20126,7 +20126,7 @@
         <v>5</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D456" s="1">
         <v>41</v>
@@ -20169,7 +20169,7 @@
         <v>6</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D457" s="1">
         <v>41</v>
@@ -20212,7 +20212,7 @@
         <v>7</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D458" s="1">
         <v>41</v>
@@ -20255,7 +20255,7 @@
         <v>8</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D459" s="1">
         <v>41</v>
@@ -20298,7 +20298,7 @@
         <v>9</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D460" s="1">
         <v>41</v>
@@ -20341,7 +20341,7 @@
         <v>10</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D461" s="1">
         <v>41</v>
@@ -20384,7 +20384,7 @@
         <v>11</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D462" s="1">
         <v>41</v>
@@ -20427,7 +20427,7 @@
         <v>12</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D463" s="1">
         <v>41</v>
@@ -20439,7 +20439,7 @@
         <v>17596</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H463" s="1">
         <v>41</v>
@@ -20470,7 +20470,7 @@
         <v>13</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D464" s="1">
         <v>41</v>
@@ -20513,7 +20513,7 @@
         <v>14</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D465" s="1">
         <v>41</v>
@@ -20556,7 +20556,7 @@
         <v>15</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D466" s="1">
         <v>41</v>
@@ -20599,7 +20599,7 @@
         <v>16</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D467" s="1">
         <v>41</v>
@@ -20642,7 +20642,7 @@
         <v>17</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D468" s="1">
         <v>41</v>
@@ -20685,7 +20685,7 @@
         <v>18</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D469" s="1">
         <v>41</v>
@@ -20728,7 +20728,7 @@
         <v>19</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D470" s="1">
         <v>41</v>
@@ -20740,7 +20740,7 @@
         <v>16229</v>
       </c>
       <c r="G470" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H470" s="1">
         <v>41</v>
@@ -20771,7 +20771,7 @@
         <v>20</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D471" s="1">
         <v>41</v>
@@ -20814,7 +20814,7 @@
         <v>21</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D472" s="1">
         <v>41</v>
@@ -20826,7 +20826,7 @@
         <v>15740</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H472" s="1">
         <v>41</v>
@@ -20857,7 +20857,7 @@
         <v>22</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D473" s="1">
         <v>41</v>
@@ -20900,7 +20900,7 @@
         <v>23</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D474" s="1">
         <v>41</v>
@@ -20943,7 +20943,7 @@
         <v>24</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D475" s="1">
         <v>41</v>
@@ -20986,7 +20986,7 @@
         <v>25</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D476" s="1">
         <v>41</v>
@@ -20998,7 +20998,7 @@
         <v>15188</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H476" s="1">
         <v>41</v>
@@ -21029,7 +21029,7 @@
         <v>26</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D477" s="1">
         <v>41</v>
@@ -21072,7 +21072,7 @@
         <v>27</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D478" s="1">
         <v>41</v>
@@ -21115,7 +21115,7 @@
         <v>28</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D479" s="1">
         <v>41</v>
@@ -21158,7 +21158,7 @@
         <v>29</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D480" s="1">
         <v>41</v>
@@ -21170,7 +21170,7 @@
         <v>13798</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H480" s="1">
         <v>41</v>
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D481" s="1">
         <v>41</v>
@@ -21244,7 +21244,7 @@
         <v>2</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D482" s="1">
         <v>41</v>
@@ -21256,7 +21256,7 @@
         <v>20172</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H482" s="1">
         <v>41</v>
@@ -21287,7 +21287,7 @@
         <v>3</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D483" s="1">
         <v>41</v>
@@ -21299,7 +21299,7 @@
         <v>19912</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H483" s="1">
         <v>41</v>
@@ -21330,7 +21330,7 @@
         <v>4</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D484" s="1">
         <v>41</v>
@@ -21373,7 +21373,7 @@
         <v>5</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D485" s="1">
         <v>41</v>
@@ -21416,7 +21416,7 @@
         <v>6</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D486" s="1">
         <v>41</v>
@@ -21459,7 +21459,7 @@
         <v>7</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D487" s="1">
         <v>41</v>
@@ -21502,7 +21502,7 @@
         <v>8</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D488" s="1">
         <v>41</v>
@@ -21545,7 +21545,7 @@
         <v>9</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D489" s="1">
         <v>41</v>
@@ -21588,7 +21588,7 @@
         <v>10</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D490" s="1">
         <v>41</v>
@@ -21631,7 +21631,7 @@
         <v>11</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D491" s="1">
         <v>41</v>
@@ -21674,7 +21674,7 @@
         <v>12</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D492" s="1">
         <v>41</v>
@@ -21717,7 +21717,7 @@
         <v>13</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D493" s="1">
         <v>41</v>
@@ -21760,7 +21760,7 @@
         <v>14</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D494" s="1">
         <v>41</v>
@@ -21772,7 +21772,7 @@
         <v>17231</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H494" s="1">
         <v>41</v>
@@ -21803,7 +21803,7 @@
         <v>15</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D495" s="1">
         <v>41</v>
@@ -21846,7 +21846,7 @@
         <v>16</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D496" s="1">
         <v>41</v>
@@ -21889,7 +21889,7 @@
         <v>17</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D497" s="1">
         <v>41</v>
@@ -21932,7 +21932,7 @@
         <v>18</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D498" s="1">
         <v>41</v>
@@ -21975,7 +21975,7 @@
         <v>19</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D499" s="1">
         <v>41</v>
@@ -22018,7 +22018,7 @@
         <v>20</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D500" s="1">
         <v>41</v>
@@ -22061,7 +22061,7 @@
         <v>21</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D501" s="1">
         <v>41</v>
@@ -22104,7 +22104,7 @@
         <v>22</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D502" s="1">
         <v>41</v>
@@ -22147,7 +22147,7 @@
         <v>23</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D503" s="1">
         <v>41</v>
@@ -22190,7 +22190,7 @@
         <v>24</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D504" s="1">
         <v>41</v>
@@ -22202,7 +22202,7 @@
         <v>14910</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H504" s="1">
         <v>41</v>
@@ -22233,7 +22233,7 @@
         <v>25</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D505" s="1">
         <v>41</v>
@@ -22245,7 +22245,7 @@
         <v>14824</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H505" s="1">
         <v>41</v>
@@ -22276,7 +22276,7 @@
         <v>26</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D506" s="1">
         <v>41</v>
@@ -22319,7 +22319,7 @@
         <v>27</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D507" s="1">
         <v>41</v>
@@ -22331,7 +22331,7 @@
         <v>13784</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H507" s="1">
         <v>41</v>
@@ -22362,7 +22362,7 @@
         <v>28</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D508" s="1">
         <v>41</v>
@@ -22374,7 +22374,7 @@
         <v>12894</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H508" s="1">
         <v>41</v>
@@ -22405,7 +22405,7 @@
         <v>29</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D509" s="1">
         <v>41</v>
@@ -22448,7 +22448,7 @@
         <v>1</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D510" s="1">
         <v>41</v>
@@ -22460,7 +22460,7 @@
         <v>22107</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H510" s="1">
         <v>41</v>
@@ -22491,7 +22491,7 @@
         <v>2</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D511" s="1">
         <v>41</v>
@@ -22503,7 +22503,7 @@
         <v>20674</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H511" s="1">
         <v>41</v>
@@ -22534,7 +22534,7 @@
         <v>3</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D512" s="1">
         <v>41</v>
@@ -22577,7 +22577,7 @@
         <v>4</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D513" s="1">
         <v>41</v>
@@ -22620,7 +22620,7 @@
         <v>5</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D514" s="1">
         <v>41</v>
@@ -22663,7 +22663,7 @@
         <v>6</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D515" s="1">
         <v>41</v>
@@ -22675,7 +22675,7 @@
         <v>19580</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H515" s="1">
         <v>41</v>
@@ -22706,7 +22706,7 @@
         <v>7</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D516" s="1">
         <v>41</v>
@@ -22749,7 +22749,7 @@
         <v>8</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D517" s="1">
         <v>41</v>
@@ -22792,7 +22792,7 @@
         <v>9</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D518" s="1">
         <v>41</v>
@@ -22835,7 +22835,7 @@
         <v>10</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D519" s="1">
         <v>41</v>
@@ -22878,7 +22878,7 @@
         <v>11</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D520" s="1">
         <v>41</v>
@@ -22921,7 +22921,7 @@
         <v>12</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D521" s="1">
         <v>41</v>
@@ -22964,7 +22964,7 @@
         <v>13</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D522" s="1">
         <v>41</v>
@@ -22976,7 +22976,7 @@
         <v>18053</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H522" s="1">
         <v>41</v>
@@ -23007,7 +23007,7 @@
         <v>14</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D523" s="1">
         <v>41</v>
@@ -23050,7 +23050,7 @@
         <v>15</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D524" s="1">
         <v>41</v>
@@ -23093,7 +23093,7 @@
         <v>16</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D525" s="1">
         <v>41</v>
@@ -23136,7 +23136,7 @@
         <v>17</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D526" s="1">
         <v>41</v>
@@ -23179,7 +23179,7 @@
         <v>18</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D527" s="1">
         <v>41</v>
@@ -23222,7 +23222,7 @@
         <v>19</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D528" s="1">
         <v>41</v>
@@ -23265,7 +23265,7 @@
         <v>20</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D529" s="1">
         <v>41</v>
@@ -23277,7 +23277,7 @@
         <v>15459</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H529" s="1">
         <v>41</v>
@@ -23308,7 +23308,7 @@
         <v>21</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D530" s="1">
         <v>41</v>
@@ -23351,7 +23351,7 @@
         <v>22</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D531" s="1">
         <v>41</v>
@@ -23394,7 +23394,7 @@
         <v>23</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D532" s="1">
         <v>41</v>
@@ -23437,7 +23437,7 @@
         <v>24</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D533" s="1">
         <v>41</v>
@@ -23480,7 +23480,7 @@
         <v>25</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D534" s="1">
         <v>41</v>
@@ -23492,7 +23492,7 @@
         <v>14415</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H534" s="1">
         <v>41</v>
@@ -23523,7 +23523,7 @@
         <v>26</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D535" s="1">
         <v>41</v>
@@ -23566,7 +23566,7 @@
         <v>27</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D536" s="1">
         <v>41</v>
@@ -23578,7 +23578,7 @@
         <v>12344</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H536" s="1">
         <v>41</v>
@@ -23609,7 +23609,7 @@
         <v>28</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D537" s="1">
         <v>41</v>
@@ -23621,7 +23621,7 @@
         <v>11737</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H537" s="1">
         <v>41</v>
@@ -23652,7 +23652,7 @@
         <v>29</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D538" s="1">
         <v>41</v>
@@ -23695,7 +23695,7 @@
         <v>1</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D539" s="1">
         <v>41</v>
@@ -23707,7 +23707,7 @@
         <v>22272</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H539" s="1">
         <v>41</v>
@@ -23716,7 +23716,7 @@
         <v>16690</v>
       </c>
       <c r="J539" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K539" s="1">
         <v>82</v>
@@ -23738,7 +23738,7 @@
         <v>2</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D540" s="1">
         <v>41</v>
@@ -23750,7 +23750,7 @@
         <v>21674</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H540" s="1">
         <v>41</v>
@@ -23759,7 +23759,7 @@
         <v>16336</v>
       </c>
       <c r="J540" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K540" s="1">
         <v>82</v>
@@ -23781,7 +23781,7 @@
         <v>3</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D541" s="1">
         <v>41</v>
@@ -23793,7 +23793,7 @@
         <v>20277</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H541" s="1">
         <v>41</v>
@@ -23802,7 +23802,7 @@
         <v>17037</v>
       </c>
       <c r="J541" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K541" s="1">
         <v>82</v>
@@ -23824,7 +23824,7 @@
         <v>4</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D542" s="1">
         <v>41</v>
@@ -23836,7 +23836,7 @@
         <v>19763</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H542" s="1">
         <v>41</v>
@@ -23845,7 +23845,7 @@
         <v>17680</v>
       </c>
       <c r="J542" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K542" s="1">
         <v>82</v>
@@ -23867,7 +23867,7 @@
         <v>5</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D543" s="1">
         <v>41</v>
@@ -23879,7 +23879,7 @@
         <v>19651</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H543" s="1">
         <v>41</v>
@@ -23888,7 +23888,7 @@
         <v>18582</v>
       </c>
       <c r="J543" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K543" s="1">
         <v>82</v>
@@ -23910,7 +23910,7 @@
         <v>6</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D544" s="1">
         <v>41</v>
@@ -23922,7 +23922,7 @@
         <v>19347</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H544" s="1">
         <v>41</v>
@@ -23931,7 +23931,7 @@
         <v>17611</v>
       </c>
       <c r="J544" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K544" s="1">
         <v>82</v>
@@ -23953,7 +23953,7 @@
         <v>7</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D545" s="1">
         <v>41</v>
@@ -23965,7 +23965,7 @@
         <v>19321</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H545" s="1">
         <v>41</v>
@@ -23974,7 +23974,7 @@
         <v>16989</v>
       </c>
       <c r="J545" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K545" s="1">
         <v>82</v>
@@ -23996,7 +23996,7 @@
         <v>8</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D546" s="1">
         <v>41</v>
@@ -24008,7 +24008,7 @@
         <v>18935</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H546" s="1">
         <v>41</v>
@@ -24017,7 +24017,7 @@
         <v>19628</v>
       </c>
       <c r="J546" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K546" s="1">
         <v>82</v>
@@ -24039,7 +24039,7 @@
         <v>9</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D547" s="1">
         <v>41</v>
@@ -24051,7 +24051,7 @@
         <v>17989</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H547" s="1">
         <v>41</v>
@@ -24060,7 +24060,7 @@
         <v>17157</v>
       </c>
       <c r="J547" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K547" s="1">
         <v>82</v>
@@ -24082,7 +24082,7 @@
         <v>10</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D548" s="1">
         <v>41</v>
@@ -24094,7 +24094,7 @@
         <v>17888</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H548" s="1">
         <v>41</v>
@@ -24103,7 +24103,7 @@
         <v>16508</v>
       </c>
       <c r="J548" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K548" s="1">
         <v>82</v>
@@ -24125,7 +24125,7 @@
         <v>11</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D549" s="1">
         <v>41</v>
@@ -24137,7 +24137,7 @@
         <v>17496</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H549" s="1">
         <v>41</v>
@@ -24146,7 +24146,7 @@
         <v>16787</v>
       </c>
       <c r="J549" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K549" s="1">
         <v>82</v>
@@ -24168,7 +24168,7 @@
         <v>12</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D550" s="1">
         <v>41</v>
@@ -24180,7 +24180,7 @@
         <v>17317</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H550" s="1">
         <v>41</v>
@@ -24189,7 +24189,7 @@
         <v>18438</v>
       </c>
       <c r="J550" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K550" s="1">
         <v>82</v>
@@ -24211,7 +24211,7 @@
         <v>13</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D551" s="1">
         <v>41</v>
@@ -24223,7 +24223,7 @@
         <v>16661</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H551" s="1">
         <v>41</v>
@@ -24232,7 +24232,7 @@
         <v>16584</v>
       </c>
       <c r="J551" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K551" s="1">
         <v>82</v>
@@ -24254,7 +24254,7 @@
         <v>14</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D552" s="1">
         <v>41</v>
@@ -24266,7 +24266,7 @@
         <v>16588</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H552" s="1">
         <v>41</v>
@@ -24275,7 +24275,7 @@
         <v>15761</v>
       </c>
       <c r="J552" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K552" s="1">
         <v>82</v>
@@ -24297,7 +24297,7 @@
         <v>15</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D553" s="1">
         <v>41</v>
@@ -24309,7 +24309,7 @@
         <v>16516</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H553" s="1">
         <v>41</v>
@@ -24318,7 +24318,7 @@
         <v>17046</v>
       </c>
       <c r="J553" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K553" s="1">
         <v>82</v>
@@ -24340,7 +24340,7 @@
         <v>16</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D554" s="1">
         <v>41</v>
@@ -24352,7 +24352,7 @@
         <v>15872</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H554" s="1">
         <v>41</v>
@@ -24361,7 +24361,7 @@
         <v>16064</v>
       </c>
       <c r="J554" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K554" s="1">
         <v>82</v>
@@ -24383,7 +24383,7 @@
         <v>17</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D555" s="1">
         <v>41</v>
@@ -24395,7 +24395,7 @@
         <v>15630</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H555" s="1">
         <v>41</v>
@@ -24404,7 +24404,7 @@
         <v>16497</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K555" s="1">
         <v>82</v>
@@ -24426,7 +24426,7 @@
         <v>18</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D556" s="1">
         <v>41</v>
@@ -24438,7 +24438,7 @@
         <v>15576</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H556" s="1">
         <v>41</v>
@@ -24447,7 +24447,7 @@
         <v>15872</v>
       </c>
       <c r="J556" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K556" s="1">
         <v>82</v>
@@ -24469,7 +24469,7 @@
         <v>19</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D557" s="1">
         <v>41</v>
@@ -24481,7 +24481,7 @@
         <v>15346</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H557" s="1">
         <v>41</v>
@@ -24490,7 +24490,7 @@
         <v>16436</v>
       </c>
       <c r="J557" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K557" s="1">
         <v>82</v>
@@ -24512,7 +24512,7 @@
         <v>20</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D558" s="1">
         <v>41</v>
@@ -24524,7 +24524,7 @@
         <v>15104</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H558" s="1">
         <v>41</v>
@@ -24533,7 +24533,7 @@
         <v>16403</v>
       </c>
       <c r="J558" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K558" s="1">
         <v>82</v>
@@ -24555,7 +24555,7 @@
         <v>21</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D559" s="1">
         <v>41</v>
@@ -24567,7 +24567,7 @@
         <v>15010</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H559" s="1">
         <v>41</v>
@@ -24576,7 +24576,7 @@
         <v>16500</v>
       </c>
       <c r="J559" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K559" s="1">
         <v>82</v>
@@ -24598,7 +24598,7 @@
         <v>22</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D560" s="1">
         <v>41</v>
@@ -24610,7 +24610,7 @@
         <v>14812</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H560" s="1">
         <v>41</v>
@@ -24619,7 +24619,7 @@
         <v>16397</v>
       </c>
       <c r="J560" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K560" s="1">
         <v>82</v>
@@ -24641,7 +24641,7 @@
         <v>23</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D561" s="1">
         <v>41</v>
@@ -24653,7 +24653,7 @@
         <v>14756</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H561" s="1">
         <v>41</v>
@@ -24662,7 +24662,7 @@
         <v>16810</v>
       </c>
       <c r="J561" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K561" s="1">
         <v>82</v>
@@ -24684,7 +24684,7 @@
         <v>24</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D562" s="1">
         <v>41</v>
@@ -24696,7 +24696,7 @@
         <v>14620</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H562" s="1">
         <v>41</v>
@@ -24705,7 +24705,7 @@
         <v>15823</v>
       </c>
       <c r="J562" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K562" s="1">
         <v>82</v>
@@ -24727,7 +24727,7 @@
         <v>25</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D563" s="1">
         <v>41</v>
@@ -24739,7 +24739,7 @@
         <v>14438</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H563" s="1">
         <v>41</v>
@@ -24748,7 +24748,7 @@
         <v>16058</v>
       </c>
       <c r="J563" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K563" s="1">
         <v>82</v>
@@ -24770,7 +24770,7 @@
         <v>26</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D564" s="1">
         <v>41</v>
@@ -24782,7 +24782,7 @@
         <v>13806</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H564" s="1">
         <v>41</v>
@@ -24791,7 +24791,7 @@
         <v>16085</v>
       </c>
       <c r="J564" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K564" s="1">
         <v>82</v>
@@ -24813,7 +24813,7 @@
         <v>27</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D565" s="1">
         <v>41</v>
@@ -24825,7 +24825,7 @@
         <v>13737</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H565" s="1">
         <v>41</v>
@@ -24834,7 +24834,7 @@
         <v>15822</v>
       </c>
       <c r="J565" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K565" s="1">
         <v>82</v>
@@ -24856,7 +24856,7 @@
         <v>28</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D566" s="1">
         <v>41</v>
@@ -24868,7 +24868,7 @@
         <v>13666</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H566" s="1">
         <v>41</v>
@@ -24877,7 +24877,7 @@
         <v>16403</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K566" s="1">
         <v>82</v>
@@ -24899,7 +24899,7 @@
         <v>29</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D567" s="1">
         <v>41</v>
@@ -24911,7 +24911,7 @@
         <v>12647</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H567" s="1">
         <v>41</v>
@@ -24920,7 +24920,7 @@
         <v>16714</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K567" s="1">
         <v>82</v>
@@ -24935,7 +24935,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y999" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="L1" r:id="rId1" display="http://www.espn.com/nba/attendance/_/sort/allAvg" xr:uid="{C8703930-EEC4-E047-B5C9-2062D69FB54C}"/>
     <hyperlink ref="M1" r:id="rId2" display="http://www.espn.com/nba/attendance/_/sort/allPct" xr:uid="{D005947D-009A-CB48-AECA-C8AF98CA521F}"/>
